--- a/Marketing/wfu.roomme.xlsx
+++ b/Marketing/wfu.roomme.xlsx
@@ -6252,7 +6252,7 @@
         </is>
       </c>
       <c r="B582" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583">
@@ -6262,7 +6262,7 @@
         </is>
       </c>
       <c r="B583" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584">
@@ -6272,7 +6272,7 @@
         </is>
       </c>
       <c r="B584" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585">
@@ -6282,7 +6282,7 @@
         </is>
       </c>
       <c r="B585" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586">
@@ -6292,7 +6292,7 @@
         </is>
       </c>
       <c r="B586" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587">
@@ -6302,7 +6302,7 @@
         </is>
       </c>
       <c r="B587" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588">
@@ -6312,7 +6312,7 @@
         </is>
       </c>
       <c r="B588" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589">
@@ -6322,7 +6322,7 @@
         </is>
       </c>
       <c r="B589" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590">
@@ -6332,7 +6332,7 @@
         </is>
       </c>
       <c r="B590" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591">
@@ -6342,7 +6342,7 @@
         </is>
       </c>
       <c r="B591" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592">
@@ -6352,7 +6352,7 @@
         </is>
       </c>
       <c r="B592" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593">
@@ -6362,7 +6362,7 @@
         </is>
       </c>
       <c r="B593" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594">
@@ -6372,7 +6372,7 @@
         </is>
       </c>
       <c r="B594" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595">
@@ -6382,7 +6382,7 @@
         </is>
       </c>
       <c r="B595" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596">
@@ -6392,7 +6392,7 @@
         </is>
       </c>
       <c r="B596" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597">
@@ -6402,7 +6402,7 @@
         </is>
       </c>
       <c r="B597" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598">
@@ -6412,7 +6412,7 @@
         </is>
       </c>
       <c r="B598" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599">
@@ -6422,7 +6422,7 @@
         </is>
       </c>
       <c r="B599" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600">
@@ -6432,7 +6432,7 @@
         </is>
       </c>
       <c r="B600" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601">
@@ -6442,7 +6442,7 @@
         </is>
       </c>
       <c r="B601" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602">

--- a/Marketing/wfu.roomme.xlsx
+++ b/Marketing/wfu.roomme.xlsx
@@ -6452,7 +6452,7 @@
         </is>
       </c>
       <c r="B602" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603">
@@ -6462,7 +6462,7 @@
         </is>
       </c>
       <c r="B603" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604">
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="B604" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605">
@@ -6482,7 +6482,7 @@
         </is>
       </c>
       <c r="B605" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606">
@@ -6492,7 +6492,7 @@
         </is>
       </c>
       <c r="B606" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607">
@@ -6502,7 +6502,7 @@
         </is>
       </c>
       <c r="B607" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608">
@@ -6512,7 +6512,7 @@
         </is>
       </c>
       <c r="B608" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609">
@@ -6522,7 +6522,7 @@
         </is>
       </c>
       <c r="B609" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610">
@@ -6532,7 +6532,7 @@
         </is>
       </c>
       <c r="B610" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611">
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="B611" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612">
@@ -6552,7 +6552,7 @@
         </is>
       </c>
       <c r="B612" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613">
@@ -6562,7 +6562,7 @@
         </is>
       </c>
       <c r="B613" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614">
@@ -6572,7 +6572,7 @@
         </is>
       </c>
       <c r="B614" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615">
@@ -6582,7 +6582,7 @@
         </is>
       </c>
       <c r="B615" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616">
@@ -6592,7 +6592,7 @@
         </is>
       </c>
       <c r="B616" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617">
@@ -6602,7 +6602,7 @@
         </is>
       </c>
       <c r="B617" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618">
@@ -6612,7 +6612,7 @@
         </is>
       </c>
       <c r="B618" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619">
@@ -6622,7 +6622,7 @@
         </is>
       </c>
       <c r="B619" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620">
@@ -6632,7 +6632,7 @@
         </is>
       </c>
       <c r="B620" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621">
@@ -6642,7 +6642,7 @@
         </is>
       </c>
       <c r="B621" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622">
@@ -6652,7 +6652,7 @@
         </is>
       </c>
       <c r="B622" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623">
@@ -6662,7 +6662,7 @@
         </is>
       </c>
       <c r="B623" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624">
@@ -6672,7 +6672,7 @@
         </is>
       </c>
       <c r="B624" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625">
@@ -6682,7 +6682,7 @@
         </is>
       </c>
       <c r="B625" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626">
@@ -6692,7 +6692,7 @@
         </is>
       </c>
       <c r="B626" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627">
@@ -6702,7 +6702,7 @@
         </is>
       </c>
       <c r="B627" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628">
@@ -6712,7 +6712,7 @@
         </is>
       </c>
       <c r="B628" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629">
@@ -6722,7 +6722,7 @@
         </is>
       </c>
       <c r="B629" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630">
@@ -6732,7 +6732,7 @@
         </is>
       </c>
       <c r="B630" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631">
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="B631" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632">
@@ -6752,7 +6752,7 @@
         </is>
       </c>
       <c r="B632" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633">
@@ -6762,7 +6762,7 @@
         </is>
       </c>
       <c r="B633" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634">
@@ -6772,7 +6772,7 @@
         </is>
       </c>
       <c r="B634" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635">
@@ -6782,7 +6782,7 @@
         </is>
       </c>
       <c r="B635" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636">
@@ -6792,7 +6792,7 @@
         </is>
       </c>
       <c r="B636" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637">
@@ -6802,7 +6802,7 @@
         </is>
       </c>
       <c r="B637" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638">
@@ -6812,7 +6812,7 @@
         </is>
       </c>
       <c r="B638" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639">
@@ -6822,7 +6822,7 @@
         </is>
       </c>
       <c r="B639" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640">
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B640" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641">
@@ -6842,7 +6842,7 @@
         </is>
       </c>
       <c r="B641" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642">
@@ -6852,7 +6852,7 @@
         </is>
       </c>
       <c r="B642" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643">
@@ -6862,7 +6862,7 @@
         </is>
       </c>
       <c r="B643" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644">
@@ -6872,7 +6872,7 @@
         </is>
       </c>
       <c r="B644" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645">
@@ -6882,7 +6882,7 @@
         </is>
       </c>
       <c r="B645" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646">
@@ -6892,7 +6892,7 @@
         </is>
       </c>
       <c r="B646" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647">
@@ -6902,7 +6902,7 @@
         </is>
       </c>
       <c r="B647" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648">
@@ -6912,7 +6912,7 @@
         </is>
       </c>
       <c r="B648" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649">
@@ -6922,7 +6922,7 @@
         </is>
       </c>
       <c r="B649" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650">
@@ -6932,7 +6932,7 @@
         </is>
       </c>
       <c r="B650" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651">
@@ -6942,7 +6942,7 @@
         </is>
       </c>
       <c r="B651" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652">
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="B652" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653">
@@ -6962,7 +6962,7 @@
         </is>
       </c>
       <c r="B653" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654">
@@ -6972,7 +6972,7 @@
         </is>
       </c>
       <c r="B654" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655">
@@ -6982,7 +6982,7 @@
         </is>
       </c>
       <c r="B655" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656">
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="B656" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657">
@@ -7002,7 +7002,7 @@
         </is>
       </c>
       <c r="B657" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658">
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="B658" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659">
@@ -7022,7 +7022,7 @@
         </is>
       </c>
       <c r="B659" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660">
@@ -7032,7 +7032,7 @@
         </is>
       </c>
       <c r="B660" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661">
@@ -7042,7 +7042,7 @@
         </is>
       </c>
       <c r="B661" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662">
@@ -7052,7 +7052,7 @@
         </is>
       </c>
       <c r="B662" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663">
@@ -7062,7 +7062,7 @@
         </is>
       </c>
       <c r="B663" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664">
@@ -7072,7 +7072,7 @@
         </is>
       </c>
       <c r="B664" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665">
@@ -7082,7 +7082,7 @@
         </is>
       </c>
       <c r="B665" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666">
@@ -7092,7 +7092,7 @@
         </is>
       </c>
       <c r="B666" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667">
@@ -7102,7 +7102,7 @@
         </is>
       </c>
       <c r="B667" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668">
@@ -7112,7 +7112,7 @@
         </is>
       </c>
       <c r="B668" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669">
@@ -7122,7 +7122,7 @@
         </is>
       </c>
       <c r="B669" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670">
@@ -7132,7 +7132,7 @@
         </is>
       </c>
       <c r="B670" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671">
@@ -7142,7 +7142,7 @@
         </is>
       </c>
       <c r="B671" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672">
@@ -7152,7 +7152,7 @@
         </is>
       </c>
       <c r="B672" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673">
@@ -7162,7 +7162,7 @@
         </is>
       </c>
       <c r="B673" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674">
@@ -7172,7 +7172,7 @@
         </is>
       </c>
       <c r="B674" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675">
@@ -7182,7 +7182,7 @@
         </is>
       </c>
       <c r="B675" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676">
@@ -7192,7 +7192,7 @@
         </is>
       </c>
       <c r="B676" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677">
@@ -7202,7 +7202,7 @@
         </is>
       </c>
       <c r="B677" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678">
@@ -7212,7 +7212,7 @@
         </is>
       </c>
       <c r="B678" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679">
@@ -7222,7 +7222,7 @@
         </is>
       </c>
       <c r="B679" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680">
@@ -7232,7 +7232,7 @@
         </is>
       </c>
       <c r="B680" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681">
@@ -7242,7 +7242,7 @@
         </is>
       </c>
       <c r="B681" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682">
@@ -7252,7 +7252,7 @@
         </is>
       </c>
       <c r="B682" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683">
@@ -7262,7 +7262,7 @@
         </is>
       </c>
       <c r="B683" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684">
@@ -7272,7 +7272,7 @@
         </is>
       </c>
       <c r="B684" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685">
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="B685" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686">
@@ -7292,7 +7292,7 @@
         </is>
       </c>
       <c r="B686" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="687">
@@ -7302,7 +7302,7 @@
         </is>
       </c>
       <c r="B687" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="688">
@@ -7312,7 +7312,7 @@
         </is>
       </c>
       <c r="B688" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689">
@@ -7322,7 +7322,7 @@
         </is>
       </c>
       <c r="B689" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690">
@@ -7332,7 +7332,7 @@
         </is>
       </c>
       <c r="B690" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691">
@@ -7342,7 +7342,7 @@
         </is>
       </c>
       <c r="B691" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692">
@@ -7352,7 +7352,7 @@
         </is>
       </c>
       <c r="B692" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="693">
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="B693" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694">
@@ -7372,7 +7372,7 @@
         </is>
       </c>
       <c r="B694" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695">
@@ -7382,7 +7382,7 @@
         </is>
       </c>
       <c r="B695" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696">
@@ -7392,7 +7392,7 @@
         </is>
       </c>
       <c r="B696" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697">
@@ -7402,7 +7402,7 @@
         </is>
       </c>
       <c r="B697" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698">
@@ -7412,7 +7412,7 @@
         </is>
       </c>
       <c r="B698" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699">
@@ -7422,7 +7422,7 @@
         </is>
       </c>
       <c r="B699" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700">
@@ -7432,7 +7432,7 @@
         </is>
       </c>
       <c r="B700" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701">
@@ -7442,7 +7442,7 @@
         </is>
       </c>
       <c r="B701" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702">
@@ -7452,7 +7452,7 @@
         </is>
       </c>
       <c r="B702" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703">
@@ -7462,7 +7462,7 @@
         </is>
       </c>
       <c r="B703" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704">
@@ -7472,7 +7472,7 @@
         </is>
       </c>
       <c r="B704" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705">
@@ -7482,7 +7482,7 @@
         </is>
       </c>
       <c r="B705" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706">
@@ -7492,7 +7492,7 @@
         </is>
       </c>
       <c r="B706" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707">
@@ -7502,7 +7502,7 @@
         </is>
       </c>
       <c r="B707" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708">
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="B708" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709">
@@ -7522,7 +7522,7 @@
         </is>
       </c>
       <c r="B709" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710">
@@ -7532,7 +7532,7 @@
         </is>
       </c>
       <c r="B710" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711">
@@ -7542,7 +7542,7 @@
         </is>
       </c>
       <c r="B711" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712">
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="B712" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713">
@@ -7562,7 +7562,7 @@
         </is>
       </c>
       <c r="B713" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714">
@@ -7572,7 +7572,7 @@
         </is>
       </c>
       <c r="B714" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715">
@@ -7582,7 +7582,7 @@
         </is>
       </c>
       <c r="B715" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716">
@@ -7592,7 +7592,7 @@
         </is>
       </c>
       <c r="B716" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717">
@@ -7602,7 +7602,7 @@
         </is>
       </c>
       <c r="B717" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718">
@@ -7612,7 +7612,7 @@
         </is>
       </c>
       <c r="B718" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B719" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720">
@@ -7632,7 +7632,7 @@
         </is>
       </c>
       <c r="B720" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721">
@@ -7642,7 +7642,7 @@
         </is>
       </c>
       <c r="B721" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722">

--- a/Marketing/wfu.roomme.xlsx
+++ b/Marketing/wfu.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B384"/>
+  <dimension ref="A1:B343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>gracyn.pisa</t>
+          <t>brookesanntos</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>leoband110203</t>
+          <t>killian.lyon</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>bella.gilmour</t>
+          <t>jrmichaels3</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>bradmeyers6</t>
+          <t>kylejhaas1</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>margie.anneee</t>
+          <t>antoniomorales_7</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>lily.engles</t>
+          <t>k8lansing</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>madimoyerr</t>
+          <t>bri.sek</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>mcco.llum1</t>
+          <t>alex_joseph_123</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>mariahgoodwyn</t>
+          <t>marniebauerdmd</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jadenmorrison_</t>
+          <t>cshevick_5</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>annedamon35</t>
+          <t>jacktshumway</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>maggie_laguzza</t>
+          <t>teej0426</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>erinbeiger</t>
+          <t>ophelialinger</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ciunc1</t>
+          <t>nathaliebaboun</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>bridget.carriello</t>
+          <t>dwlightiv</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>devlin.brindle</t>
+          <t>_.anafranco</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>steph.greenhouse</t>
+          <t>nancymac8</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>peter.stovell</t>
+          <t>gracyn.pisa</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>madisarluk</t>
+          <t>chrhodes_7</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>_tylerberman</t>
+          <t>ava.killacky</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ellayoderr</t>
+          <t>shanaatkins2446</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>oliviaaweekes</t>
+          <t>stephen_neill_</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>_sarah_johnson23</t>
+          <t>maya_roth</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>brinda.laddha</t>
+          <t>jackson_fauvre</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>malegizio</t>
+          <t>_abbyhough</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>jaymarshall12</t>
+          <t>dominiksrnensky</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>simmonsarnoldd</t>
+          <t>thomas.bucholsky</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>tylerr__18</t>
+          <t>lilyyoneilll</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>sofia.b.am</t>
+          <t>charlie.slater16</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>lillyrlevin</t>
+          <t>ijm_wfu</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>seth_neitlich</t>
+          <t>darla.quituisaca</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>rahwitluv</t>
+          <t>tommyverhey5</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>vintagerescuer</t>
+          <t>edy_mackenzie</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>charliegilliam11</t>
+          <t>will_hankins</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>pgsaunders_05</t>
+          <t>alexweinstein0</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>kayleighquinn512</t>
+          <t>annedamon35</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>eloisefosterr</t>
+          <t>eve.darke</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>luke.lesinski</t>
+          <t>olivia__yeatman</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>mazin_awada</t>
+          <t>annelisegrayy</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>janeiveyj</t>
+          <t>lucybkirby</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>beadedbyrachael</t>
+          <t>julia_capuano5</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>sally.brehm</t>
+          <t>maddiebochniak</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>marykate.keegan</t>
+          <t>quinn_healey</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>lydiaschwab</t>
+          <t>luke_poland</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>wakeforest26</t>
+          <t>lenidethlefs</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>riddhikbasu</t>
+          <t>adam.kaddoura_</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>deerob0301</t>
+          <t>joshgunther1129</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>_d.dez_</t>
+          <t>mkrill_4</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>benepsteinn</t>
+          <t>a.bbymullins</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>michael_disantis</t>
+          <t>eliza.kali25</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>k8lansing</t>
+          <t>vic.arzate_</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>jaydenchawla_</t>
+          <t>ava.moore_</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>_wes3lli</t>
+          <t>abbysroley</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>will_schultz04</t>
+          <t>jdbaumer7</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>alexacepero</t>
+          <t>lucyywoodworth</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>kate_k_tully</t>
+          <t>ec.allen</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ashagopall</t>
+          <t>charlottefcameron</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>nishu_shah22</t>
+          <t>miles_aristides</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>debramcgarity</t>
+          <t>summerforaste</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>deepa.mahesh</t>
+          <t>ella7hayes</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>marybrookshall</t>
+          <t>kellanfournelle</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>nate.hansen21</t>
+          <t>dallas_agnew_05</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>wiesel.sam</t>
+          <t>cathiurs</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>halle.daggitt</t>
+          <t>caroline_anne_g</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1088,7 +1088,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>belle.gams</t>
+          <t>gracejones901</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>emily_meinert</t>
+          <t>max_jacobsen13</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>anna.l.dickson</t>
+          <t>bonniegerecke</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>xoxo.gennyyy</t>
+          <t>maureensullivannn</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>jrmichaels3</t>
+          <t>jillian.goldman</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>lukewrogers_</t>
+          <t>kyla_dumser</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>miles_aristides</t>
+          <t>pac351</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>dhruv_patel130</t>
+          <t>tom.spater</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>chrisellis2_</t>
+          <t>mathildachee</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ali.tabellione</t>
+          <t>nick_ghate</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>sarahkastell</t>
+          <t>sarahcombss</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>_tylerrush_</t>
+          <t>bella.gilmour</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>davidzoller6</t>
+          <t>marieleiselee</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>kathyems</t>
+          <t>josh.horowitz_</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>phpacker</t>
+          <t>willlburke</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>m.a.x_i_</t>
+          <t>miabsuarez</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1248,2007 +1248,2007 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>dareen_km_</t>
+          <t>esromghirmay26</t>
         </is>
       </c>
       <c r="B82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>khloe_maldonado</t>
+          <t>shrihan.a</t>
         </is>
       </c>
       <c r="B83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>makayla_mackey</t>
+          <t>haleyclayton05</t>
         </is>
       </c>
       <c r="B84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>jack_zambito</t>
+          <t>rahwitluv</t>
         </is>
       </c>
       <c r="B85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>averygrummon</t>
+          <t>edinam_w</t>
         </is>
       </c>
       <c r="B86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ryansharifov</t>
+          <t>emily.corzine</t>
         </is>
       </c>
       <c r="B87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>kellanfournelle</t>
+          <t>halle.daggitt</t>
         </is>
       </c>
       <c r="B88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>dylankling.05</t>
+          <t>caroline.pollack</t>
         </is>
       </c>
       <c r="B89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>sophia_fafatas</t>
+          <t>virginia.ec</t>
         </is>
       </c>
       <c r="B90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>_toddkeller_</t>
+          <t>erika.pfisterr</t>
         </is>
       </c>
       <c r="B91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>jake.nicholson18</t>
+          <t>philip_sabet15</t>
         </is>
       </c>
       <c r="B92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ronnyalvrz</t>
+          <t>kujjeong323</t>
         </is>
       </c>
       <c r="B93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>kileygalvin</t>
+          <t>joshl_bda</t>
         </is>
       </c>
       <c r="B94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>frederick_groppe</t>
+          <t>viviann.jing</t>
         </is>
       </c>
       <c r="B95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>scottgreen92</t>
+          <t>_lukebrodsky</t>
         </is>
       </c>
       <c r="B96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>a_whisnand05</t>
+          <t>johnmarkstow</t>
         </is>
       </c>
       <c r="B97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>william_cavenaugh</t>
+          <t>chloevadams</t>
         </is>
       </c>
       <c r="B98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>talia.cohen16</t>
+          <t>m_aborn</t>
         </is>
       </c>
       <c r="B99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>tess_adamsss</t>
+          <t>sarahkastell</t>
         </is>
       </c>
       <c r="B100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>jamesb_buckley</t>
+          <t>belle.gams</t>
         </is>
       </c>
       <c r="B101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>clio.rao</t>
+          <t>_graceclarkk</t>
         </is>
       </c>
       <c r="B102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>antoniomorales_7</t>
+          <t>_skyecasey</t>
         </is>
       </c>
       <c r="B103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>autumn_hauser_</t>
+          <t>gilesmichel_</t>
         </is>
       </c>
       <c r="B104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>alli.buckler</t>
+          <t>_tylerrush_</t>
         </is>
       </c>
       <c r="B105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>kylejhaas1</t>
+          <t>_averysung</t>
         </is>
       </c>
       <c r="B106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ophelialinger</t>
+          <t>lilypalomaki</t>
         </is>
       </c>
       <c r="B107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ava.phillipss</t>
+          <t>christycreson</t>
         </is>
       </c>
       <c r="B108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>maggiemaffia</t>
+          <t>mike_vesey</t>
         </is>
       </c>
       <c r="B109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>helennewton3</t>
+          <t>pagebrubaker</t>
         </is>
       </c>
       <c r="B110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>jamccuskey</t>
+          <t>anya.huggins</t>
         </is>
       </c>
       <c r="B111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>jamie_talley3</t>
+          <t>reillycullen_</t>
         </is>
       </c>
       <c r="B112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>alex_joseph_123</t>
+          <t>efsocciii</t>
         </is>
       </c>
       <c r="B113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>cat.mcandrew</t>
+          <t>_mariasilveira_</t>
         </is>
       </c>
       <c r="B114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>ashlynmin</t>
+          <t>jungxoy</t>
         </is>
       </c>
       <c r="B115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>gennahayes_</t>
+          <t>_victoriaaconstantine</t>
         </is>
       </c>
       <c r="B116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>sarahspiress</t>
+          <t>davisbrutonn</t>
         </is>
       </c>
       <c r="B117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>edinam_w</t>
+          <t>allieroeckerr</t>
         </is>
       </c>
       <c r="B118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>charlottecottonn</t>
+          <t>fredkhalaf</t>
         </is>
       </c>
       <c r="B119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>_andrewvollrath</t>
+          <t>_kateparrish</t>
         </is>
       </c>
       <c r="B120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>andrew_pasierb</t>
+          <t>graceoetgen</t>
         </is>
       </c>
       <c r="B121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>colin_gillen</t>
+          <t>nmakalii</t>
         </is>
       </c>
       <c r="B122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>mia.banks04</t>
+          <t>lily.engles</t>
         </is>
       </c>
       <c r="B123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>alana_duran_</t>
+          <t>a_whisnand05</t>
         </is>
       </c>
       <c r="B124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>sophiemathas</t>
+          <t>berksievers</t>
         </is>
       </c>
       <c r="B125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>meryl.katz</t>
+          <t>reid_hamilton14</t>
         </is>
       </c>
       <c r="B126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>audreygjones</t>
+          <t>frankmalvey</t>
         </is>
       </c>
       <c r="B127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>samanthardorfman</t>
+          <t>aubrey.byrne</t>
         </is>
       </c>
       <c r="B128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>leviosaa.c</t>
+          <t>caroline.khalaf</t>
         </is>
       </c>
       <c r="B129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>kenley.mcclure</t>
+          <t>_sadiescott_</t>
         </is>
       </c>
       <c r="B130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>bennetthaara</t>
+          <t>michael_weitz12</t>
         </is>
       </c>
       <c r="B131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>martharoby</t>
+          <t>gav7ndamon</t>
         </is>
       </c>
       <c r="B132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>lindseyarnel</t>
+          <t>simmonsarnoldd</t>
         </is>
       </c>
       <c r="B133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>mollyalles</t>
+          <t>brookepitluk</t>
         </is>
       </c>
       <c r="B134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>roar.ws</t>
+          <t>noah_m.parker</t>
         </is>
       </c>
       <c r="B135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>james.stewart1517</t>
+          <t>alex_aborn10</t>
         </is>
       </c>
       <c r="B136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>lucybkirby</t>
+          <t>braelyn.howardd</t>
         </is>
       </c>
       <c r="B137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>kerrington_jags6</t>
+          <t>ariabaken</t>
         </is>
       </c>
       <c r="B138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>addysolvsberg</t>
+          <t>alyssapreisano</t>
         </is>
       </c>
       <c r="B139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>hunniyaaaa</t>
+          <t>anneellisbohannon</t>
         </is>
       </c>
       <c r="B140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>kellygazzara</t>
+          <t>esfwake</t>
         </is>
       </c>
       <c r="B141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>rssolber</t>
+          <t>nico__aulet_24_</t>
         </is>
       </c>
       <c r="B142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>lovingmytribeoffive</t>
+          <t>kendall.pinsky</t>
         </is>
       </c>
       <c r="B143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>laurcchan</t>
+          <t>delaneysill</t>
         </is>
       </c>
       <c r="B144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>anymultach</t>
+          <t>sbuschmann1</t>
         </is>
       </c>
       <c r="B145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>max_jacobsen13</t>
+          <t>sydney_perlick</t>
         </is>
       </c>
       <c r="B146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>annemariebauer_</t>
+          <t>emmaa_hickss</t>
         </is>
       </c>
       <c r="B147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>davisbrutonn</t>
+          <t>lwillson30</t>
         </is>
       </c>
       <c r="B148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>annabelleetan</t>
+          <t>clio.rao</t>
         </is>
       </c>
       <c r="B149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>jackk_herring</t>
+          <t>numgary</t>
         </is>
       </c>
       <c r="B150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>rhiansimone_</t>
+          <t>tom.malbon</t>
         </is>
       </c>
       <c r="B151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>a.bbymullins</t>
+          <t>krithikasurapaneni</t>
         </is>
       </c>
       <c r="B152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>aubre_lovell10</t>
+          <t>talia.cohen16</t>
         </is>
       </c>
       <c r="B153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>wfu_usa</t>
+          <t>jackiedavid_</t>
         </is>
       </c>
       <c r="B154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>rachelusatinee</t>
+          <t>ajay_24s</t>
         </is>
       </c>
       <c r="B155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>ava_lebeau</t>
+          <t>john_oconnor19</t>
         </is>
       </c>
       <c r="B156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>androw4115</t>
+          <t>tmolinario</t>
         </is>
       </c>
       <c r="B157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>parkerall3n</t>
+          <t>pomskypapa</t>
         </is>
       </c>
       <c r="B158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>emersonbonham</t>
+          <t>jennifer_carr_royal</t>
         </is>
       </c>
       <c r="B159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>ryan.mitsch</t>
+          <t>autumn_hauser_</t>
         </is>
       </c>
       <c r="B160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>kyrampowell</t>
+          <t>rhiansimone_</t>
         </is>
       </c>
       <c r="B161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>susiehaskell</t>
+          <t>_wes3lli</t>
         </is>
       </c>
       <c r="B162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>_devparikh</t>
+          <t>cam.macgregor</t>
         </is>
       </c>
       <c r="B163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>myra_lyll</t>
+          <t>will.moy3</t>
         </is>
       </c>
       <c r="B164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>emma.engle_05</t>
+          <t>isabella.duzan</t>
         </is>
       </c>
       <c r="B165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>maddiebroghammer</t>
+          <t>ryan.mitsch</t>
         </is>
       </c>
       <c r="B166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>sofiagratt</t>
+          <t>dannymcgarel</t>
         </is>
       </c>
       <c r="B167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>clarajuckett_</t>
+          <t>sophia.cecile</t>
         </is>
       </c>
       <c r="B168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>sophia.cecile</t>
+          <t>augustgregoryy</t>
         </is>
       </c>
       <c r="B169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>babita8145</t>
+          <t>elizabethbrindel</t>
         </is>
       </c>
       <c r="B170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>carolinemoritz_</t>
+          <t>grayjos3ph</t>
         </is>
       </c>
       <c r="B171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>sbuschmann1</t>
+          <t>n_straka03</t>
         </is>
       </c>
       <c r="B172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>sophlin2302</t>
+          <t>allyfalk</t>
         </is>
       </c>
       <c r="B173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>yr_lyugrace</t>
+          <t>vibha.uday</t>
         </is>
       </c>
       <c r="B174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>isabellarodrisan</t>
+          <t>nic.azzarello</t>
         </is>
       </c>
       <c r="B175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>fredkhalaf</t>
+          <t>imasharon3</t>
         </is>
       </c>
       <c r="B176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>teej0426</t>
+          <t>jonahshapiro1</t>
         </is>
       </c>
       <c r="B177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>kyla_dumser</t>
+          <t>dylancahill10</t>
         </is>
       </c>
       <c r="B178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>jennifer_carr_royal</t>
+          <t>o.polombo</t>
         </is>
       </c>
       <c r="B179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>mgongster</t>
+          <t>hilary.stamper</t>
         </is>
       </c>
       <c r="B180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>springyang93</t>
+          <t>_kennedy.reid</t>
         </is>
       </c>
       <c r="B181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>_sadiescott_</t>
+          <t>oliviaaweekes</t>
         </is>
       </c>
       <c r="B182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>emm.cook</t>
+          <t>lindseyy.swift</t>
         </is>
       </c>
       <c r="B183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>_kennedy.reid</t>
+          <t>harris_feinman</t>
         </is>
       </c>
       <c r="B184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>ellieotteson_</t>
+          <t>giselle.bushey</t>
         </is>
       </c>
       <c r="B185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>_mariasilveira_</t>
+          <t>ben_sharon19</t>
         </is>
       </c>
       <c r="B186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>benweinfeld_</t>
+          <t>yr_lyugrace</t>
         </is>
       </c>
       <c r="B187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>berksievers</t>
+          <t>caleighamano</t>
         </is>
       </c>
       <c r="B188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>lilliangausmann</t>
+          <t>chrisellis2_</t>
         </is>
       </c>
       <c r="B189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>lilyyoneilll</t>
+          <t>lilywade.17</t>
         </is>
       </c>
       <c r="B190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>kenna_bullard</t>
+          <t>mazin_awada</t>
         </is>
       </c>
       <c r="B191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>annalise.jones13</t>
+          <t>mattaronsohn</t>
         </is>
       </c>
       <c r="B192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>mallory_boedefeld</t>
+          <t>malegizio</t>
         </is>
       </c>
       <c r="B193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>lukeegizio</t>
+          <t>megan_grob</t>
         </is>
       </c>
       <c r="B194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>francesca_fonseca05</t>
+          <t>rilesxhilf</t>
         </is>
       </c>
       <c r="B195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>_mks.jr_</t>
+          <t>cat.mcandrew</t>
         </is>
       </c>
       <c r="B196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>audreygmcginn</t>
+          <t>sbelk95</t>
         </is>
       </c>
       <c r="B197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>maddiebochniak</t>
+          <t>karinamacevedo</t>
         </is>
       </c>
       <c r="B198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>jillian.goldman</t>
+          <t>lilliangausmann</t>
         </is>
       </c>
       <c r="B199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>bri.sek</t>
+          <t>skylerrrobinson</t>
         </is>
       </c>
       <c r="B200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>griffin.dilworth</t>
+          <t>devlin.brindle</t>
         </is>
       </c>
       <c r="B201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>sararosenbaum_</t>
+          <t>_mks.jr_</t>
         </is>
       </c>
       <c r="B202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>mattbourguignon</t>
+          <t>kate.keenhold</t>
         </is>
       </c>
       <c r="B203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>z.l.amos</t>
+          <t>katenorweg</t>
         </is>
       </c>
       <c r="B204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>tyler_mcc14</t>
+          <t>rachelusatinee</t>
         </is>
       </c>
       <c r="B205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>sera.finizio</t>
+          <t>charlottelafleyyy</t>
         </is>
       </c>
       <c r="B206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>kieransattiraju</t>
+          <t>katieudoff</t>
         </is>
       </c>
       <c r="B207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>genahausercook</t>
+          <t>sophierchan_</t>
         </is>
       </c>
       <c r="B208" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>tmolinario</t>
+          <t>kayleighquinn512</t>
         </is>
       </c>
       <c r="B209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>thomas.bucholsky</t>
+          <t>waltingis36</t>
         </is>
       </c>
       <c r="B210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>linzzfritz</t>
+          <t>hannahlovera</t>
         </is>
       </c>
       <c r="B211" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>charlie.fleming3</t>
+          <t>sahildhru</t>
         </is>
       </c>
       <c r="B212" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>ciarraliyah_</t>
+          <t>wils.davis</t>
         </is>
       </c>
       <c r="B213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>steveralff</t>
+          <t>beadedbyrachael</t>
         </is>
       </c>
       <c r="B214" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>anya.huggins</t>
+          <t>elllamartinn</t>
         </is>
       </c>
       <c r="B215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>nau_twe</t>
+          <t>leilonivic</t>
         </is>
       </c>
       <c r="B216" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>hlannaa</t>
+          <t>samsommer5</t>
         </is>
       </c>
       <c r="B217" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>will_hankins</t>
+          <t>alli.buckler</t>
         </is>
       </c>
       <c r="B218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>pomskypapa</t>
+          <t>z.l.amos</t>
         </is>
       </c>
       <c r="B219" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>lqbal__7775</t>
+          <t>mariahgoodwyn</t>
         </is>
       </c>
       <c r="B220" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>bethhaviland</t>
+          <t>lillyrlevin</t>
         </is>
       </c>
       <c r="B221" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>domgarb</t>
+          <t>lqbal__7775</t>
         </is>
       </c>
       <c r="B222" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>juliaamada305</t>
+          <t>kerrington_jags6</t>
         </is>
       </c>
       <c r="B223" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>adam.kaddoura_</t>
+          <t>margaretroby_</t>
         </is>
       </c>
       <c r="B224" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>tom.malbon</t>
+          <t>serenitysperanza</t>
         </is>
       </c>
       <c r="B225" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>pipergenkin_</t>
+          <t>juliafdavis_</t>
         </is>
       </c>
       <c r="B226" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>kujjeong323</t>
+          <t>oliviahobgoodd</t>
         </is>
       </c>
       <c r="B227" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>darla.quituisaca</t>
+          <t>becket6</t>
         </is>
       </c>
       <c r="B228" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>_ashleyjordan_</t>
+          <t>lydiaschwab</t>
         </is>
       </c>
       <c r="B229" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>willpg2023</t>
+          <t>hrshljni</t>
         </is>
       </c>
       <c r="B230" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>jessmariem_</t>
+          <t>alwayssmadi</t>
         </is>
       </c>
       <c r="B231" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>mike_vesey</t>
+          <t>marykate.keegan</t>
         </is>
       </c>
       <c r="B232" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>sutttonnn_</t>
+          <t>jasonn__wang</t>
         </is>
       </c>
       <c r="B233" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>collinlogsdon04</t>
+          <t>joanna_raynes</t>
         </is>
       </c>
       <c r="B234" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>janecohen_</t>
+          <t>sofia.kim004</t>
         </is>
       </c>
       <c r="B235" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>jackson_fauvre</t>
+          <t>sammi.van</t>
         </is>
       </c>
       <c r="B236" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>cogan_will</t>
+          <t>zacslotnik</t>
         </is>
       </c>
       <c r="B237" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>lleylaherrera</t>
+          <t>marthaawalkerr</t>
         </is>
       </c>
       <c r="B238" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>wyatt_ralff</t>
+          <t>amandallynch</t>
         </is>
       </c>
       <c r="B239" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>dominiksrnensky</t>
+          <t>frederick_groppe</t>
         </is>
       </c>
       <c r="B240" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>annaferdkoff</t>
+          <t>chriskontoss</t>
         </is>
       </c>
       <c r="B241" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>jackiedavid_</t>
+          <t>wfuiv</t>
         </is>
       </c>
       <c r="B242" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>alex_aborn10</t>
+          <t>violaswartout</t>
         </is>
       </c>
       <c r="B243" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>gavin_1225</t>
+          <t>kobe.powell</t>
         </is>
       </c>
       <c r="B244" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>colefrutos</t>
+          <t>brigiddoconnor</t>
         </is>
       </c>
       <c r="B245" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>will.moy3</t>
+          <t>tylerhoffman05</t>
         </is>
       </c>
       <c r="B246" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>abbysroley</t>
+          <t>alizeh_chamadia</t>
         </is>
       </c>
       <c r="B247" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>meade_evans</t>
+          <t>mathews.bn12</t>
         </is>
       </c>
       <c r="B248" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>charlie_schlossberg</t>
+          <t>dylankling.05</t>
         </is>
       </c>
       <c r="B249" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>madjackson14</t>
+          <t>wfualumni</t>
         </is>
       </c>
       <c r="B250" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>gauzz._</t>
+          <t>ellen_pritch</t>
         </is>
       </c>
       <c r="B251" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>_avahornbacher</t>
+          <t>bennetthaara</t>
         </is>
       </c>
       <c r="B252" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>grant_dangler</t>
+          <t>alice.weir</t>
         </is>
       </c>
       <c r="B253" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>kevthelegend23</t>
+          <t>rebekah.elluru</t>
         </is>
       </c>
       <c r="B254" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>mattienotmaddie11</t>
+          <t>ryanluo21</t>
         </is>
       </c>
       <c r="B255" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>pat_eller</t>
+          <t>annikahowie_</t>
         </is>
       </c>
       <c r="B256" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>emily.corzine</t>
+          <t>rory.heslin</t>
         </is>
       </c>
       <c r="B257" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>mad_murray20</t>
+          <t>gauzz._</t>
         </is>
       </c>
       <c r="B258" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>sallyliu0731</t>
+          <t>poyal.ratten_</t>
         </is>
       </c>
       <c r="B259" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>michael_weitz12</t>
+          <t>emily_meinert</t>
         </is>
       </c>
       <c r="B260" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>pistoy6</t>
+          <t>jessmariem_</t>
         </is>
       </c>
       <c r="B261" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>jenna.hauser_</t>
+          <t>oakleydeison</t>
         </is>
       </c>
       <c r="B262" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>jdbaumer7</t>
+          <t>drewski__0</t>
         </is>
       </c>
       <c r="B263" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>andrej_hadzima</t>
+          <t>sofiagratt</t>
         </is>
       </c>
       <c r="B264" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>wave.waldman</t>
+          <t>mauramcgeary</t>
         </is>
       </c>
       <c r="B265" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>malcolmraupp_</t>
+          <t>chloedelman</t>
         </is>
       </c>
       <c r="B266" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>ty_mizzell</t>
+          <t>ssophie.eggers</t>
         </is>
       </c>
       <c r="B267" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>james_mcgregor23</t>
+          <t>sarahijaz_</t>
         </is>
       </c>
       <c r="B268" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>anna.2.gray</t>
+          <t>katelyn_castlle</t>
         </is>
       </c>
       <c r="B269" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>katenorweg</t>
+          <t>alinakazarian_</t>
         </is>
       </c>
       <c r="B270" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>hrshljni</t>
+          <t>abby_bojko</t>
         </is>
       </c>
       <c r="B271" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>christycreson</t>
+          <t>matiromagnoli</t>
         </is>
       </c>
       <c r="B272" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>seanbrundage5</t>
+          <t>iamryanmcginn</t>
         </is>
       </c>
       <c r="B273" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>reillycullen_</t>
+          <t>madjackson14</t>
         </is>
       </c>
       <c r="B274" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>oliviahobgoodd</t>
+          <t>sophia_fafatas</t>
         </is>
       </c>
       <c r="B275" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>nikolasvelentzas</t>
+          <t>emm.cook</t>
         </is>
       </c>
       <c r="B276" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>_josieparks</t>
+          <t>ronak.lalaji</t>
         </is>
       </c>
       <c r="B277" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>jess.lrose</t>
+          <t>natelong_23</t>
         </is>
       </c>
       <c r="B278" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>chris_dandola_</t>
+          <t>alana_duran_</t>
         </is>
       </c>
       <c r="B279" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>_skyecasey</t>
+          <t>meaghan_fox87</t>
         </is>
       </c>
       <c r="B280" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>vic.arzate_</t>
+          <t>meghan.boehm</t>
         </is>
       </c>
       <c r="B281" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>am.strang</t>
+          <t>rileystorch_</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -3258,7 +3258,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>braelyn.howardd</t>
+          <t>ahalstuch</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -3268,7 +3268,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>declanbrady_</t>
+          <t>greeleythegolden</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -3278,7 +3278,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>dannymcgarel</t>
+          <t>emma_h3812</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -3288,7 +3288,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>ronak.lalaji</t>
+          <t>olivia_deyoung</t>
         </is>
       </c>
       <c r="B286" t="b">
@@ -3298,7 +3298,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>nico__aulet_24_</t>
+          <t>_d.dez_</t>
         </is>
       </c>
       <c r="B287" t="b">
@@ -3308,7 +3308,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>chriskontoss</t>
+          <t>peyton.culpepper</t>
         </is>
       </c>
       <c r="B288" t="b">
@@ -3318,7 +3318,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>sammi.van</t>
+          <t>lukewrogers_</t>
         </is>
       </c>
       <c r="B289" t="b">
@@ -3328,7 +3328,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>harrisonsatterfield8</t>
+          <t>hi_cste1012</t>
         </is>
       </c>
       <c r="B290" t="b">
@@ -3338,7 +3338,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>isabella.duzan</t>
+          <t>_andrewvollrath</t>
         </is>
       </c>
       <c r="B291" t="b">
@@ -3348,7 +3348,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>rileystorch_</t>
+          <t>claraambrose_</t>
         </is>
       </c>
       <c r="B292" t="b">
@@ -3358,7 +3358,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>sheilamariewolf</t>
+          <t>laurcchan</t>
         </is>
       </c>
       <c r="B293" t="b">
@@ -3368,7 +3368,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>hilaryadelman_</t>
+          <t>alexscheuplein</t>
         </is>
       </c>
       <c r="B294" t="b">
@@ -3378,7 +3378,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>christianalouise_</t>
+          <t>genahausercook</t>
         </is>
       </c>
       <c r="B295" t="b">
@@ -3388,7 +3388,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>la.rry_lulu</t>
+          <t>kenley.mcclure</t>
         </is>
       </c>
       <c r="B296" t="b">
@@ -3398,7 +3398,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>olivia__yeatman</t>
+          <t>turan_ahmad7</t>
         </is>
       </c>
       <c r="B297" t="b">
@@ -3408,7 +3408,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>miabsuarez</t>
+          <t>francesca_fonseca05</t>
         </is>
       </c>
       <c r="B298" t="b">
@@ -3418,7 +3418,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>charlie.savadove</t>
+          <t>jillianlaurienti</t>
         </is>
       </c>
       <c r="B299" t="b">
@@ -3428,7 +3428,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>gilesmichel_</t>
+          <t>eemmaleonard</t>
         </is>
       </c>
       <c r="B300" t="b">
@@ -3438,7 +3438,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>lucyywoodworth</t>
+          <t>livvmiddleton</t>
         </is>
       </c>
       <c r="B301" t="b">
@@ -3448,7 +3448,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>jk718atl</t>
+          <t>connorlittle3</t>
         </is>
       </c>
       <c r="B302" t="b">
@@ -3458,7 +3458,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>vibha.uday</t>
+          <t>eddiekane_13</t>
         </is>
       </c>
       <c r="B303" t="b">
@@ -3468,7 +3468,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>_tygarrett__</t>
+          <t>brennan.troup</t>
         </is>
       </c>
       <c r="B304" t="b">
@@ -3478,7 +3478,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>_maddy_miller</t>
+          <t>marleighstannard</t>
         </is>
       </c>
       <c r="B305" t="b">
@@ -3488,7 +3488,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>elliegabriel_</t>
+          <t>myra_lyll</t>
         </is>
       </c>
       <c r="B306" t="b">
@@ -3498,7 +3498,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>katiedong_xiaoyan</t>
+          <t>emmabellottee</t>
         </is>
       </c>
       <c r="B307" t="b">
@@ -3508,7 +3508,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>grayjos3ph</t>
+          <t>meryl.katz</t>
         </is>
       </c>
       <c r="B308" t="b">
@@ -3518,7 +3518,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>jaxsonw.13</t>
+          <t>benweinfeld_</t>
         </is>
       </c>
       <c r="B309" t="b">
@@ -3528,7 +3528,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>natelong_23</t>
+          <t>susiehaskell</t>
         </is>
       </c>
       <c r="B310" t="b">
@@ -3538,7 +3538,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>victoriaarlia</t>
+          <t>angelaboyerstump</t>
         </is>
       </c>
       <c r="B311" t="b">
@@ -3548,7 +3548,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>ben_sharon19</t>
+          <t>michael_disantis</t>
         </is>
       </c>
       <c r="B312" t="b">
@@ -3558,7 +3558,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>dwlightiv</t>
+          <t>_emersoncoleman</t>
         </is>
       </c>
       <c r="B313" t="b">
@@ -3568,7 +3568,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>chloe.akis</t>
+          <t>wyatt_ralff</t>
         </is>
       </c>
       <c r="B314" t="b">
@@ -3578,7 +3578,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>andrew_ferj1</t>
+          <t>luke.lesinski</t>
         </is>
       </c>
       <c r="B315" t="b">
@@ -3588,7 +3588,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>gracieehucks</t>
+          <t>jess.lrose</t>
         </is>
       </c>
       <c r="B316" t="b">
@@ -3598,7 +3598,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>rilesxhilf</t>
+          <t>charlottecottonn</t>
         </is>
       </c>
       <c r="B317" t="b">
@@ -3608,7 +3608,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>tom.spater</t>
+          <t>bradmeyers6</t>
         </is>
       </c>
       <c r="B318" t="b">
@@ -3618,7 +3618,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>__.meleshia.__</t>
+          <t>miamihipdoc</t>
         </is>
       </c>
       <c r="B319" t="b">
@@ -3628,7 +3628,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>caroline_anne_g</t>
+          <t>roar.ws</t>
         </is>
       </c>
       <c r="B320" t="b">
@@ -3638,7 +3638,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>ksarahemily</t>
+          <t>susy.wang2005</t>
         </is>
       </c>
       <c r="B321" t="b">
@@ -3648,7 +3648,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>alliefritz</t>
+          <t>dareen_km_</t>
         </is>
       </c>
       <c r="B322" t="b">
@@ -3658,7 +3658,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>thomas.journagan</t>
+          <t>davenport.hatcher</t>
         </is>
       </c>
       <c r="B323" t="b">
@@ -3668,7 +3668,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>elrengifoo</t>
+          <t>ava.phillipss</t>
         </is>
       </c>
       <c r="B324" t="b">
@@ -3678,7 +3678,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>efsocciii</t>
+          <t>jaymarshall12</t>
         </is>
       </c>
       <c r="B325" t="b">
@@ -3688,7 +3688,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>blssdbeachmom2</t>
+          <t>sally.brehm</t>
         </is>
       </c>
       <c r="B326" t="b">
@@ -3698,7 +3698,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>scheetzmary</t>
+          <t>jocelyn_chen_</t>
         </is>
       </c>
       <c r="B327" t="b">
@@ -3708,7 +3708,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>ryanluo21</t>
+          <t>andrew_ferj1</t>
         </is>
       </c>
       <c r="B328" t="b">
@@ -3718,7 +3718,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>ssophie.eggers</t>
+          <t>stephaniesayegh1979</t>
         </is>
       </c>
       <c r="B329" t="b">
@@ -3728,7 +3728,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>jacktshumway</t>
+          <t>scottgreen92</t>
         </is>
       </c>
       <c r="B330" t="b">
@@ -3738,7 +3738,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>margaretroby_</t>
+          <t>cogan_will</t>
         </is>
       </c>
       <c r="B331" t="b">
@@ -3748,7 +3748,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>madelynn_keller</t>
+          <t>andrew.bennett1</t>
         </is>
       </c>
       <c r="B332" t="b">
@@ -3758,7 +3758,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>will_froehlich</t>
+          <t>tylerr__18</t>
         </is>
       </c>
       <c r="B333" t="b">
@@ -3768,7 +3768,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>marleighstannard</t>
+          <t>ciarraliyah_</t>
         </is>
       </c>
       <c r="B334" t="b">
@@ -3778,7 +3778,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>esromghirmay26</t>
+          <t>ameliawondrasch</t>
         </is>
       </c>
       <c r="B335" t="b">
@@ -3788,7 +3788,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>englesgregg</t>
+          <t>anniewater.s</t>
         </is>
       </c>
       <c r="B336" t="b">
@@ -3798,7 +3798,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>palmerwalstad</t>
+          <t>peter.stovell</t>
         </is>
       </c>
       <c r="B337" t="b">
@@ -3808,7 +3808,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>wils.davis</t>
+          <t>matthew_hillman1029</t>
         </is>
       </c>
       <c r="B338" t="b">
@@ -3818,7 +3818,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>matthew_hillman1029</t>
+          <t>ellayoderr</t>
         </is>
       </c>
       <c r="B339" t="b">
@@ -3828,7 +3828,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>nick_ghate</t>
+          <t>justinbenbassat_</t>
         </is>
       </c>
       <c r="B340" t="b">
@@ -3838,7 +3838,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>cladie.owen</t>
+          <t>wakeforest26</t>
         </is>
       </c>
       <c r="B341" t="b">
@@ -3848,7 +3848,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>imasharon3</t>
+          <t>isabelogorman</t>
         </is>
       </c>
       <c r="B342" t="b">
@@ -3858,420 +3858,10 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>pac351</t>
+          <t>victoriaarlia</t>
         </is>
       </c>
       <c r="B343" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>charlottelafleyyy</t>
-        </is>
-      </c>
-      <c r="B344" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>sarahgallardo_</t>
-        </is>
-      </c>
-      <c r="B345" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>alliecroehm</t>
-        </is>
-      </c>
-      <c r="B346" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>chayawesome</t>
-        </is>
-      </c>
-      <c r="B347" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>_abbysgarcia</t>
-        </is>
-      </c>
-      <c r="B348" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>k.claytonbricklemyer</t>
-        </is>
-      </c>
-      <c r="B349" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="inlineStr">
-        <is>
-          <t>hilary.stamper</t>
-        </is>
-      </c>
-      <c r="B350" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="inlineStr">
-        <is>
-          <t>tybogdanovich</t>
-        </is>
-      </c>
-      <c r="B351" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>virginia.herring</t>
-        </is>
-      </c>
-      <c r="B352" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>mattaronsohn</t>
-        </is>
-      </c>
-      <c r="B353" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>marthaawalkerr</t>
-        </is>
-      </c>
-      <c r="B354" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="inlineStr">
-        <is>
-          <t>yeatmanmatthew</t>
-        </is>
-      </c>
-      <c r="B355" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="inlineStr">
-        <is>
-          <t>giselle.bushey</t>
-        </is>
-      </c>
-      <c r="B356" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="inlineStr">
-        <is>
-          <t>caroline.m.fox</t>
-        </is>
-      </c>
-      <c r="B357" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="inlineStr">
-        <is>
-          <t>th3yluvzali</t>
-        </is>
-      </c>
-      <c r="B358" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="inlineStr">
-        <is>
-          <t>jasonn__wang</t>
-        </is>
-      </c>
-      <c r="B359" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="inlineStr">
-        <is>
-          <t>o.polombo</t>
-        </is>
-      </c>
-      <c r="B360" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="inlineStr">
-        <is>
-          <t>andrewdwyer</t>
-        </is>
-      </c>
-      <c r="B361" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="inlineStr">
-        <is>
-          <t>marycaroline_k</t>
-        </is>
-      </c>
-      <c r="B362" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="inlineStr">
-        <is>
-          <t>livvmiddleton</t>
-        </is>
-      </c>
-      <c r="B363" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="inlineStr">
-        <is>
-          <t>evanjlichtenstein</t>
-        </is>
-      </c>
-      <c r="B364" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="inlineStr">
-        <is>
-          <t>ecs_eight</t>
-        </is>
-      </c>
-      <c r="B365" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>celzanancyi</t>
-        </is>
-      </c>
-      <c r="B366" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="inlineStr">
-        <is>
-          <t>ariabaken</t>
-        </is>
-      </c>
-      <c r="B367" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>mauramcgeary</t>
-        </is>
-      </c>
-      <c r="B368" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>j_adams844</t>
-        </is>
-      </c>
-      <c r="B369" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>tygeralbano</t>
-        </is>
-      </c>
-      <c r="B370" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>cgervasi_713</t>
-        </is>
-      </c>
-      <c r="B371" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>efremr_</t>
-        </is>
-      </c>
-      <c r="B372" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>charlottefcameron</t>
-        </is>
-      </c>
-      <c r="B373" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>lynnnnn_yuan</t>
-        </is>
-      </c>
-      <c r="B374" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>augustgregoryy</t>
-        </is>
-      </c>
-      <c r="B375" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>will__mchugh</t>
-        </is>
-      </c>
-      <c r="B376" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>arric_4</t>
-        </is>
-      </c>
-      <c r="B377" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>sallykwak_</t>
-        </is>
-      </c>
-      <c r="B378" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>emmaa_hickss</t>
-        </is>
-      </c>
-      <c r="B379" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>diorrcharles</t>
-        </is>
-      </c>
-      <c r="B380" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>wfusasa</t>
-        </is>
-      </c>
-      <c r="B381" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>julia_capuano5</t>
-        </is>
-      </c>
-      <c r="B382" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>shrihan.a</t>
-        </is>
-      </c>
-      <c r="B383" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="inlineStr">
-        <is>
-          <t>ash.biehl</t>
-        </is>
-      </c>
-      <c r="B384" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Marketing/wfu.roomme.xlsx
+++ b/Marketing/wfu.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B343"/>
+  <dimension ref="A1:B273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>brookesanntos</t>
+          <t>mad_murray20</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>killian.lyon</t>
+          <t>nishu_shah22</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jrmichaels3</t>
+          <t>finnmcdonald12</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>kylejhaas1</t>
+          <t>ryanluo21</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>antoniomorales_7</t>
+          <t>domgarb</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>k8lansing</t>
+          <t>charlieclurman</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>bri.sek</t>
+          <t>a.bbymullins</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>alex_joseph_123</t>
+          <t>hi_cste1012</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>marniebauerdmd</t>
+          <t>bellacoughlin8</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>cshevick_5</t>
+          <t>sarahezehnder</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jacktshumway</t>
+          <t>andrew_pasierb</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>teej0426</t>
+          <t>viviann.jing</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ophelialinger</t>
+          <t>harrisonsatterfield8</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>nathaliebaboun</t>
+          <t>pipergenkin_</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>dwlightiv</t>
+          <t>saylornmurray</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>_.anafranco</t>
+          <t>lindseyy.swift</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>nancymac8</t>
+          <t>sarahcombss</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>gracyn.pisa</t>
+          <t>blssdbeachmom2</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>chrhodes_7</t>
+          <t>k8lansing</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ava.killacky</t>
+          <t>tybogdanovich</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>shanaatkins2446</t>
+          <t>sutttonnn_</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>stephen_neill_</t>
+          <t>gabi.yankovski</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>maya_roth</t>
+          <t>gracearcherr</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>jackson_fauvre</t>
+          <t>logansullivan77</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>_abbyhough</t>
+          <t>johnmarkstow</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>dominiksrnensky</t>
+          <t>ciarraliyah_</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>thomas.bucholsky</t>
+          <t>gilesmichel_</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>lilyyoneilll</t>
+          <t>_ashleyjordan_</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>charlie.slater16</t>
+          <t>micellanous23</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ijm_wfu</t>
+          <t>mags.roemer</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>darla.quituisaca</t>
+          <t>kyla_dumser</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>tommyverhey5</t>
+          <t>_kateparrish</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>edy_mackenzie</t>
+          <t>andrewsatt04</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>will_hankins</t>
+          <t>caroline.m.fox</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>alexweinstein0</t>
+          <t>jemmit1z3</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>annedamon35</t>
+          <t>delaneysill</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>eve.darke</t>
+          <t>caylimarino</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>olivia__yeatman</t>
+          <t>annikahowie_</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>annelisegrayy</t>
+          <t>rileystorch_</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>lucybkirby</t>
+          <t>krisbhatnagar</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>julia_capuano5</t>
+          <t>meghan.boehm</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>maddiebochniak</t>
+          <t>mauramcgeary</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>quinn_healey</t>
+          <t>gabe.herrera88</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>luke_poland</t>
+          <t>belle.gams</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>lenidethlefs</t>
+          <t>stephen_neill_</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>adam.kaddoura_</t>
+          <t>trev.byrnes</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>joshgunther1129</t>
+          <t>summerforaste</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>mkrill_4</t>
+          <t>alexmkeating</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>a.bbymullins</t>
+          <t>elizabethyyang</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>eliza.kali25</t>
+          <t>thomas.bucholsky</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>vic.arzate_</t>
+          <t>roseesoriano</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ava.moore_</t>
+          <t>n_straka03</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>abbysroley</t>
+          <t>khloe_maldonado</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>jdbaumer7</t>
+          <t>ellieotteson_</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>lucyywoodworth</t>
+          <t>jackxklein</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ec.allen</t>
+          <t>will.moy3</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>charlottefcameron</t>
+          <t>emily_meinert</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>miles_aristides</t>
+          <t>cgervasi_713</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>summerforaste</t>
+          <t>anniegreer12</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ella7hayes</t>
+          <t>alex_joseph_123</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>kellanfournelle</t>
+          <t>elkuuv</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>dallas_agnew_05</t>
+          <t>john_oconnor19</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>cathiurs</t>
+          <t>turan_ahmad7</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>caroline_anne_g</t>
+          <t>marthaawalkerr</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1088,7 +1088,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>gracejones901</t>
+          <t>juddschnall</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>max_jacobsen13</t>
+          <t>davisbrutonn</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>bonniegerecke</t>
+          <t>mazin_awada</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>maureensullivannn</t>
+          <t>sydney_perlick</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>jillian.goldman</t>
+          <t>aubrey.byrne</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>kyla_dumser</t>
+          <t>becket6</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>pac351</t>
+          <t>luke.lesinski</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>tom.spater</t>
+          <t>kendall.cosby</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>mathildachee</t>
+          <t>lillyrlevin</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>nick_ghate</t>
+          <t>raquelgomerman</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>sarahcombss</t>
+          <t>lilypalomaki</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>bella.gilmour</t>
+          <t>chrisellis2_</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>marieleiselee</t>
+          <t>will__mchugh</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>josh.horowitz_</t>
+          <t>kileygalvin</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>willlburke</t>
+          <t>_averysung</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>miabsuarez</t>
+          <t>sophiemathas</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1248,507 +1248,507 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>esromghirmay26</t>
+          <t>lulu_scruggs</t>
         </is>
       </c>
       <c r="B82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>shrihan.a</t>
+          <t>viviannacardona</t>
         </is>
       </c>
       <c r="B83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>haleyclayton05</t>
+          <t>vasilikibachardy</t>
         </is>
       </c>
       <c r="B84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>rahwitluv</t>
+          <t>ava.pascarella</t>
         </is>
       </c>
       <c r="B85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>edinam_w</t>
+          <t>victoriaarlia</t>
         </is>
       </c>
       <c r="B86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>emily.corzine</t>
+          <t>maddiebochniak</t>
         </is>
       </c>
       <c r="B87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>halle.daggitt</t>
+          <t>luke_poland</t>
         </is>
       </c>
       <c r="B88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>caroline.pollack</t>
+          <t>hudsonsirois</t>
         </is>
       </c>
       <c r="B89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>virginia.ec</t>
+          <t>alicewangyr</t>
         </is>
       </c>
       <c r="B90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>erika.pfisterr</t>
+          <t>lucybkirby</t>
         </is>
       </c>
       <c r="B91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>philip_sabet15</t>
+          <t>lillyylarson</t>
         </is>
       </c>
       <c r="B92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>kujjeong323</t>
+          <t>laurcchan</t>
         </is>
       </c>
       <c r="B93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>joshl_bda</t>
+          <t>brookepitluk</t>
         </is>
       </c>
       <c r="B94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>viviann.jing</t>
+          <t>owenalmassy</t>
         </is>
       </c>
       <c r="B95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>_lukebrodsky</t>
+          <t>chloedelman</t>
         </is>
       </c>
       <c r="B96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>johnmarkstow</t>
+          <t>sela_schamroth</t>
         </is>
       </c>
       <c r="B97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>chloevadams</t>
+          <t>chayawesome</t>
         </is>
       </c>
       <c r="B98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>m_aborn</t>
+          <t>ellie.wildman</t>
         </is>
       </c>
       <c r="B99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>sarahkastell</t>
+          <t>alizeh_chamadia</t>
         </is>
       </c>
       <c r="B100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>belle.gams</t>
+          <t>mia.banks04</t>
         </is>
       </c>
       <c r="B101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>_graceclarkk</t>
+          <t>kaylarotondo</t>
         </is>
       </c>
       <c r="B102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>_skyecasey</t>
+          <t>caroline.khalaf</t>
         </is>
       </c>
       <c r="B103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>gilesmichel_</t>
+          <t>claraambrose_</t>
         </is>
       </c>
       <c r="B104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>_tylerrush_</t>
+          <t>_devparikh</t>
         </is>
       </c>
       <c r="B105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>_averysung</t>
+          <t>courtneymanges</t>
         </is>
       </c>
       <c r="B106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>lilypalomaki</t>
+          <t>alex_aborn10</t>
         </is>
       </c>
       <c r="B107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>christycreson</t>
+          <t>danielle_beckerman</t>
         </is>
       </c>
       <c r="B108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>mike_vesey</t>
+          <t>samsommer5</t>
         </is>
       </c>
       <c r="B109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>pagebrubaker</t>
+          <t>masonbortner</t>
         </is>
       </c>
       <c r="B110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>anya.huggins</t>
+          <t>lmille.r</t>
         </is>
       </c>
       <c r="B111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>reillycullen_</t>
+          <t>jonascarv__</t>
         </is>
       </c>
       <c r="B112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>efsocciii</t>
+          <t>talia.cohen16</t>
         </is>
       </c>
       <c r="B113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>_mariasilveira_</t>
+          <t>julia_capuano5</t>
         </is>
       </c>
       <c r="B114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>jungxoy</t>
+          <t>jmassey_3</t>
         </is>
       </c>
       <c r="B115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>_victoriaaconstantine</t>
+          <t>jaydenchawla_</t>
         </is>
       </c>
       <c r="B116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>davisbrutonn</t>
+          <t>trip_latimer</t>
         </is>
       </c>
       <c r="B117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>allieroeckerr</t>
+          <t>_.anafranco</t>
         </is>
       </c>
       <c r="B118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>fredkhalaf</t>
+          <t>catehardin04</t>
         </is>
       </c>
       <c r="B119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>_kateparrish</t>
+          <t>jack_zambito</t>
         </is>
       </c>
       <c r="B120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>graceoetgen</t>
+          <t>alexacepero</t>
         </is>
       </c>
       <c r="B121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>nmakalii</t>
+          <t>brettspada</t>
         </is>
       </c>
       <c r="B122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>lily.engles</t>
+          <t>alejandrakreeger</t>
         </is>
       </c>
       <c r="B123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>a_whisnand05</t>
+          <t>lukeegizio</t>
         </is>
       </c>
       <c r="B124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>berksievers</t>
+          <t>sophie.squyres</t>
         </is>
       </c>
       <c r="B125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>reid_hamilton14</t>
+          <t>nic.azzarello</t>
         </is>
       </c>
       <c r="B126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>frankmalvey</t>
+          <t>aaorwig</t>
         </is>
       </c>
       <c r="B127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>aubrey.byrne</t>
+          <t>sophia_fafatas</t>
         </is>
       </c>
       <c r="B128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>caroline.khalaf</t>
+          <t>_lukebrodsky</t>
         </is>
       </c>
       <c r="B129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>_sadiescott_</t>
+          <t>frederick_groppe</t>
         </is>
       </c>
       <c r="B130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>michael_weitz12</t>
+          <t>dylankling.05</t>
         </is>
       </c>
       <c r="B131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>gav7ndamon</t>
+          <t>anneellisbohannon</t>
         </is>
       </c>
       <c r="B132" t="b">
@@ -1758,7 +1758,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>simmonsarnoldd</t>
+          <t>ophelialinger</t>
         </is>
       </c>
       <c r="B133" t="b">
@@ -1768,7 +1768,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>brookepitluk</t>
+          <t>alliefritz</t>
         </is>
       </c>
       <c r="B134" t="b">
@@ -1778,7 +1778,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>noah_m.parker</t>
+          <t>mavcortes</t>
         </is>
       </c>
       <c r="B135" t="b">
@@ -1788,7 +1788,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>alex_aborn10</t>
+          <t>da.goy</t>
         </is>
       </c>
       <c r="B136" t="b">
@@ -1798,7 +1798,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>braelyn.howardd</t>
+          <t>vavi_rodgers</t>
         </is>
       </c>
       <c r="B137" t="b">
@@ -1808,7 +1808,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ariabaken</t>
+          <t>samanthasimmon.s</t>
         </is>
       </c>
       <c r="B138" t="b">
@@ -1818,7 +1818,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>alyssapreisano</t>
+          <t>_sophlin_</t>
         </is>
       </c>
       <c r="B139" t="b">
@@ -1828,7 +1828,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>anneellisbohannon</t>
+          <t>_emilyschmitt</t>
         </is>
       </c>
       <c r="B140" t="b">
@@ -1838,7 +1838,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>esfwake</t>
+          <t>emmabellottee</t>
         </is>
       </c>
       <c r="B141" t="b">
@@ -1848,7 +1848,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>nico__aulet_24_</t>
+          <t>lleylaherrera</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -1858,7 +1858,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>kendall.pinsky</t>
+          <t>hunniyaaaa</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -1868,7 +1868,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>delaneysill</t>
+          <t>angelahpacheco</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -1878,7 +1878,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>sbuschmann1</t>
+          <t>tommyverhey5</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -1888,7 +1888,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>sydney_perlick</t>
+          <t>m.a.x_i_</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -1898,7 +1898,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>emmaa_hickss</t>
+          <t>adimulabagal</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -1908,7 +1908,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>lwillson30</t>
+          <t>johnfletcherbutler</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -1918,7 +1918,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>clio.rao</t>
+          <t>leilonivic</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -1928,7 +1928,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>numgary</t>
+          <t>virginia.ec</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -1938,7 +1938,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>tom.malbon</t>
+          <t>will_macan</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -1948,7 +1948,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>krithikasurapaneni</t>
+          <t>nick_ghate</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -1958,7 +1958,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>talia.cohen16</t>
+          <t>_emersoncoleman</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -1968,7 +1968,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>jackiedavid_</t>
+          <t>michaelexelbert</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -1978,7 +1978,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>ajay_24s</t>
+          <t>marybrookshall</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -1988,7 +1988,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>john_oconnor19</t>
+          <t>katiedong_xiaoyan</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -1998,7 +1998,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>tmolinario</t>
+          <t>peytonsemple</t>
         </is>
       </c>
       <c r="B157" t="b">
@@ -2008,7 +2008,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>pomskypapa</t>
+          <t>cam.macgregor</t>
         </is>
       </c>
       <c r="B158" t="b">
@@ -2018,7 +2018,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>jennifer_carr_royal</t>
+          <t>siesieg9853</t>
         </is>
       </c>
       <c r="B159" t="b">
@@ -2028,7 +2028,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>autumn_hauser_</t>
+          <t>tom.malbon</t>
         </is>
       </c>
       <c r="B160" t="b">
@@ -2038,7 +2038,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>rhiansimone_</t>
+          <t>willhickey9</t>
         </is>
       </c>
       <c r="B161" t="b">
@@ -2048,7 +2048,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>_wes3lli</t>
+          <t>chrhodes_7</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2058,7 +2058,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>cam.macgregor</t>
+          <t>erika.pfisterr</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2068,7 +2068,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>will.moy3</t>
+          <t>tyler_patterson01</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2078,7 +2078,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>isabella.duzan</t>
+          <t>th3yluvzali</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2088,7 +2088,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>ryan.mitsch</t>
+          <t>phpacker</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2098,7 +2098,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>dannymcgarel</t>
+          <t>haleyclayton05</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2108,7 +2108,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>sophia.cecile</t>
+          <t>dylanccahill</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2118,7 +2118,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>augustgregoryy</t>
+          <t>mkrill_4</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2128,7 +2128,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>elizabethbrindel</t>
+          <t>sarahspiress</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2138,7 +2138,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>grayjos3ph</t>
+          <t>ashagopall</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -2148,7 +2148,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>n_straka03</t>
+          <t>isabelogorman</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -2158,7 +2158,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>allyfalk</t>
+          <t>emma.viviano</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -2168,7 +2168,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>vibha.uday</t>
+          <t>virginiaa.young</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -2178,7 +2178,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>nic.azzarello</t>
+          <t>andrej_hadzima</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -2188,7 +2188,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>imasharon3</t>
+          <t>ben_night24</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -2198,7 +2198,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>jonahshapiro1</t>
+          <t>orrin_jones_4</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -2208,7 +2208,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>dylancahill10</t>
+          <t>rhiansimone_</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -2218,7 +2218,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>o.polombo</t>
+          <t>gracieburke_</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -2228,7 +2228,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>hilary.stamper</t>
+          <t>cogan_will</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -2238,7 +2238,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>_kennedy.reid</t>
+          <t>ali.tabellione</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -2248,7 +2248,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>oliviaaweekes</t>
+          <t>syedabdullahx</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -2258,7 +2258,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>lindseyy.swift</t>
+          <t>karinamacevedo</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -2268,7 +2268,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>harris_feinman</t>
+          <t>caroline.pollack</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -2278,7 +2278,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>giselle.bushey</t>
+          <t>charlie.savadove</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -2288,7 +2288,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>ben_sharon19</t>
+          <t>ciunc1</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -2298,7 +2298,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>yr_lyugrace</t>
+          <t>jasonn__wang</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -2308,7 +2308,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>caleighamano</t>
+          <t>benweinfeld_</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -2318,7 +2318,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>chrisellis2_</t>
+          <t>am.strang</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -2328,7 +2328,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>lilywade.17</t>
+          <t>wfu_usa</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -2338,7 +2338,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>mazin_awada</t>
+          <t>allie.paganessi</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -2348,7 +2348,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>mattaronsohn</t>
+          <t>annemariebauer_</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -2358,7 +2358,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>malegizio</t>
+          <t>lukewrogers_</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -2368,7 +2368,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>megan_grob</t>
+          <t>tyler_mcc14</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -2388,7 +2388,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>cat.mcandrew</t>
+          <t>natreed04</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -2398,7 +2398,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>sbelk95</t>
+          <t>ella.porfilio</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -2408,7 +2408,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>karinamacevedo</t>
+          <t>juliafdavis_</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -2418,7 +2418,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>lilliangausmann</t>
+          <t>james.lombo</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -2428,7 +2428,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>skylerrrobinson</t>
+          <t>nikhedupuganti</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -2438,7 +2438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>devlin.brindle</t>
+          <t>_sarah_johnson23</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -2448,7 +2448,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>_mks.jr_</t>
+          <t>johnny_heff</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -2458,7 +2458,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>kate.keenhold</t>
+          <t>madisarluk</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -2468,7 +2468,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>katenorweg</t>
+          <t>olivia_deyoung</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -2478,7 +2478,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>rachelusatinee</t>
+          <t>lyla.muntner</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -2488,7 +2488,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>charlottelafleyyy</t>
+          <t>vic.arzate_</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -2498,7 +2498,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>katieudoff</t>
+          <t>alex_.randall</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -2508,7 +2508,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>sophierchan_</t>
+          <t>jason._._zhao</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -2518,7 +2518,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>kayleighquinn512</t>
+          <t>bakeryoung_</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -2528,7 +2528,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>waltingis36</t>
+          <t>elliedeminico</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -2538,7 +2538,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>hannahlovera</t>
+          <t>fvalois_2406</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -2548,7 +2548,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>sahildhru</t>
+          <t>kade.oneal22</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -2558,7 +2558,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>wils.davis</t>
+          <t>ash.biehl</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -2568,7 +2568,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>beadedbyrachael</t>
+          <t>gauzz._</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -2578,7 +2578,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>elllamartinn</t>
+          <t>lily.engles</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -2588,7 +2588,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>leilonivic</t>
+          <t>meryl.katz</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -2598,7 +2598,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>samsommer5</t>
+          <t>tmolinario</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -2608,7 +2608,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>alli.buckler</t>
+          <t>oliviahobgoodd</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -2618,7 +2618,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>z.l.amos</t>
+          <t>tylerhoffman05</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -2628,7 +2628,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>mariahgoodwyn</t>
+          <t>johnnyminnetian</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -2638,7 +2638,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>lillyrlevin</t>
+          <t>lilyyoneilll</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -2648,7 +2648,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>lqbal__7775</t>
+          <t>annehaddonnottingham</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -2658,7 +2658,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>kerrington_jags6</t>
+          <t>colefrutos</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -2668,7 +2668,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>margaretroby_</t>
+          <t>natelong_23</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -2678,7 +2678,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>serenitysperanza</t>
+          <t>dareen_km_</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -2688,7 +2688,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>juliafdavis_</t>
+          <t>emersonbonham</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -2698,7 +2698,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>oliviahobgoodd</t>
+          <t>willpg2023</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -2708,7 +2708,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>becket6</t>
+          <t>_mariasilveira_</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -2718,7 +2718,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>lydiaschwab</t>
+          <t>ye.anavibes</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -2728,7 +2728,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>hrshljni</t>
+          <t>allie.duarte</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -2738,7 +2738,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>alwayssmadi</t>
+          <t>drewcochranee</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -2748,7 +2748,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>marykate.keegan</t>
+          <t>cahner.marie</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -2758,7 +2758,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>jasonn__wang</t>
+          <t>carolyn_rendle</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -2768,7 +2768,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>joanna_raynes</t>
+          <t>zacslotnik</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -2778,7 +2778,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>sofia.kim004</t>
+          <t>sofiagratt</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -2788,7 +2788,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>sammi.van</t>
+          <t>autumn_hauser_</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -2798,7 +2798,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>zacslotnik</t>
+          <t>darcyy.green</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -2808,7 +2808,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>marthaawalkerr</t>
+          <t>ellen_pritch</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -2818,7 +2818,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>amandallynch</t>
+          <t>edinam_w</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -2828,7 +2828,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>frederick_groppe</t>
+          <t>antoniomorales_7</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -2838,7 +2838,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>chriskontoss</t>
+          <t>eve.darke</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -2848,7 +2848,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>wfuiv</t>
+          <t>miabsuarez</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -2858,7 +2858,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>violaswartout</t>
+          <t>kyra.gallagher</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -2868,7 +2868,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>kobe.powell</t>
+          <t>caroline_anne_g</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -2878,7 +2878,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>brigiddoconnor</t>
+          <t>gav7ndamon</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -2888,7 +2888,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>tylerhoffman05</t>
+          <t>andrew.buschmann2</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -2898,7 +2898,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>alizeh_chamadia</t>
+          <t>pagebrubaker</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -2908,7 +2908,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>mathews.bn12</t>
+          <t>alice.weir</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -2918,7 +2918,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>dylankling.05</t>
+          <t>parkerall3n</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -2928,7 +2928,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>wfualumni</t>
+          <t>david.maschler</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -2938,7 +2938,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>ellen_pritch</t>
+          <t>mike_vesey</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -2948,7 +2948,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>bennetthaara</t>
+          <t>wils.davis</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -2958,7 +2958,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>alice.weir</t>
+          <t>kyrampowell</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -2968,7 +2968,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>rebekah.elluru</t>
+          <t>james_mcgregor23</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -2978,7 +2978,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>ryanluo21</t>
+          <t>seanbrundage5</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -2988,7 +2988,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>annikahowie_</t>
+          <t>evansmith_13</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -2998,7 +2998,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>rory.heslin</t>
+          <t>justinbenbassat_</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -3008,7 +3008,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>gauzz._</t>
+          <t>bridget.carriello</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -3018,7 +3018,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>poyal.ratten_</t>
+          <t>willfoley12</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -3028,7 +3028,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>emily_meinert</t>
+          <t>colin_clark1</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -3038,7 +3038,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>jessmariem_</t>
+          <t>max_jacobsen13</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -3048,7 +3048,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>oakleydeison</t>
+          <t>sammi.van</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -3058,7 +3058,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>drewski__0</t>
+          <t>bella.gilmour</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -3068,7 +3068,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>sofiagratt</t>
+          <t>jillianlaurienti</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -3078,7 +3078,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>mauramcgeary</t>
+          <t>tylerr__18</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -3088,7 +3088,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>chloedelman</t>
+          <t>wiesel.sam</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -3098,7 +3098,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>ssophie.eggers</t>
+          <t>sally.brehm</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -3108,7 +3108,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>sarahijaz_</t>
+          <t>_rydersolberg_</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -3118,7 +3118,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>katelyn_castlle</t>
+          <t>clarajordaoelia</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -3128,7 +3128,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>alinakazarian_</t>
+          <t>samplagemann</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -3138,7 +3138,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>abby_bojko</t>
+          <t>will_froehlich</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -3148,7 +3148,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>matiromagnoli</t>
+          <t>lianagiannuzzi</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -3158,710 +3158,10 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>iamryanmcginn</t>
+          <t>a_whisnand05</t>
         </is>
       </c>
       <c r="B273" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>madjackson14</t>
-        </is>
-      </c>
-      <c r="B274" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>sophia_fafatas</t>
-        </is>
-      </c>
-      <c r="B275" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>emm.cook</t>
-        </is>
-      </c>
-      <c r="B276" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>ronak.lalaji</t>
-        </is>
-      </c>
-      <c r="B277" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>natelong_23</t>
-        </is>
-      </c>
-      <c r="B278" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>alana_duran_</t>
-        </is>
-      </c>
-      <c r="B279" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>meaghan_fox87</t>
-        </is>
-      </c>
-      <c r="B280" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>meghan.boehm</t>
-        </is>
-      </c>
-      <c r="B281" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>rileystorch_</t>
-        </is>
-      </c>
-      <c r="B282" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>ahalstuch</t>
-        </is>
-      </c>
-      <c r="B283" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>greeleythegolden</t>
-        </is>
-      </c>
-      <c r="B284" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>emma_h3812</t>
-        </is>
-      </c>
-      <c r="B285" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>olivia_deyoung</t>
-        </is>
-      </c>
-      <c r="B286" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>_d.dez_</t>
-        </is>
-      </c>
-      <c r="B287" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>peyton.culpepper</t>
-        </is>
-      </c>
-      <c r="B288" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>lukewrogers_</t>
-        </is>
-      </c>
-      <c r="B289" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>hi_cste1012</t>
-        </is>
-      </c>
-      <c r="B290" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>_andrewvollrath</t>
-        </is>
-      </c>
-      <c r="B291" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>claraambrose_</t>
-        </is>
-      </c>
-      <c r="B292" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>laurcchan</t>
-        </is>
-      </c>
-      <c r="B293" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>alexscheuplein</t>
-        </is>
-      </c>
-      <c r="B294" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>genahausercook</t>
-        </is>
-      </c>
-      <c r="B295" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>kenley.mcclure</t>
-        </is>
-      </c>
-      <c r="B296" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>turan_ahmad7</t>
-        </is>
-      </c>
-      <c r="B297" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>francesca_fonseca05</t>
-        </is>
-      </c>
-      <c r="B298" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>jillianlaurienti</t>
-        </is>
-      </c>
-      <c r="B299" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>eemmaleonard</t>
-        </is>
-      </c>
-      <c r="B300" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>livvmiddleton</t>
-        </is>
-      </c>
-      <c r="B301" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>connorlittle3</t>
-        </is>
-      </c>
-      <c r="B302" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>eddiekane_13</t>
-        </is>
-      </c>
-      <c r="B303" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>brennan.troup</t>
-        </is>
-      </c>
-      <c r="B304" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>marleighstannard</t>
-        </is>
-      </c>
-      <c r="B305" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>myra_lyll</t>
-        </is>
-      </c>
-      <c r="B306" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>emmabellottee</t>
-        </is>
-      </c>
-      <c r="B307" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>meryl.katz</t>
-        </is>
-      </c>
-      <c r="B308" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>benweinfeld_</t>
-        </is>
-      </c>
-      <c r="B309" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>susiehaskell</t>
-        </is>
-      </c>
-      <c r="B310" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>angelaboyerstump</t>
-        </is>
-      </c>
-      <c r="B311" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t>michael_disantis</t>
-        </is>
-      </c>
-      <c r="B312" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>_emersoncoleman</t>
-        </is>
-      </c>
-      <c r="B313" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>wyatt_ralff</t>
-        </is>
-      </c>
-      <c r="B314" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>luke.lesinski</t>
-        </is>
-      </c>
-      <c r="B315" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>jess.lrose</t>
-        </is>
-      </c>
-      <c r="B316" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>charlottecottonn</t>
-        </is>
-      </c>
-      <c r="B317" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>bradmeyers6</t>
-        </is>
-      </c>
-      <c r="B318" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>miamihipdoc</t>
-        </is>
-      </c>
-      <c r="B319" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>roar.ws</t>
-        </is>
-      </c>
-      <c r="B320" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>susy.wang2005</t>
-        </is>
-      </c>
-      <c r="B321" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="inlineStr">
-        <is>
-          <t>dareen_km_</t>
-        </is>
-      </c>
-      <c r="B322" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="inlineStr">
-        <is>
-          <t>davenport.hatcher</t>
-        </is>
-      </c>
-      <c r="B323" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="inlineStr">
-        <is>
-          <t>ava.phillipss</t>
-        </is>
-      </c>
-      <c r="B324" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="inlineStr">
-        <is>
-          <t>jaymarshall12</t>
-        </is>
-      </c>
-      <c r="B325" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>sally.brehm</t>
-        </is>
-      </c>
-      <c r="B326" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>jocelyn_chen_</t>
-        </is>
-      </c>
-      <c r="B327" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>andrew_ferj1</t>
-        </is>
-      </c>
-      <c r="B328" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>stephaniesayegh1979</t>
-        </is>
-      </c>
-      <c r="B329" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>scottgreen92</t>
-        </is>
-      </c>
-      <c r="B330" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>cogan_will</t>
-        </is>
-      </c>
-      <c r="B331" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>andrew.bennett1</t>
-        </is>
-      </c>
-      <c r="B332" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>tylerr__18</t>
-        </is>
-      </c>
-      <c r="B333" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>ciarraliyah_</t>
-        </is>
-      </c>
-      <c r="B334" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t>ameliawondrasch</t>
-        </is>
-      </c>
-      <c r="B335" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="inlineStr">
-        <is>
-          <t>anniewater.s</t>
-        </is>
-      </c>
-      <c r="B336" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="inlineStr">
-        <is>
-          <t>peter.stovell</t>
-        </is>
-      </c>
-      <c r="B337" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="inlineStr">
-        <is>
-          <t>matthew_hillman1029</t>
-        </is>
-      </c>
-      <c r="B338" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>ellayoderr</t>
-        </is>
-      </c>
-      <c r="B339" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>justinbenbassat_</t>
-        </is>
-      </c>
-      <c r="B340" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>wakeforest26</t>
-        </is>
-      </c>
-      <c r="B341" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>isabelogorman</t>
-        </is>
-      </c>
-      <c r="B342" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>victoriaarlia</t>
-        </is>
-      </c>
-      <c r="B343" t="b">
         <v>0</v>
       </c>
     </row>
